--- a/GEP/Output_Clusters_Asigned_To_Countries/ward_10_af_df_solar.xlsx
+++ b/GEP/Output_Clusters_Asigned_To_Countries/ward_10_af_df_solar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,7 +1281,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.01929625425652667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0005589714924538849</v>
+        <v>0.02012297372833986</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.003125</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01929625425652667</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02012297372833986</v>
+        <v>0.008384572386808275</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.02662320021733225</v>
       </c>
       <c r="G27" t="n">
-        <v>0.003125</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.008384572386808275</v>
+        <v>0.03186137506987144</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02662320021733225</v>
+        <v>0.001901657158380875</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1393,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.001135073779795687</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03186137506987144</v>
+        <v>0.05980994969256552</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001901657158380875</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001135073779795687</v>
+        <v>0.04426787741203178</v>
       </c>
       <c r="E30" t="n">
-        <v>0.05980994969256552</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1445,23 +1445,23 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.1191626409017711</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.8139534883720939</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04426787741203178</v>
+        <v>0.09080590238365494</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1470,44 +1470,44 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.3499999999999993</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.7472035794183463</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1191626409017711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8139534883720939</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09080590238365494</v>
+        <v>0.2145289443813848</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.08719955282280603</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3499999999999993</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7472035794183463</v>
+        <v>0.08724832214765106</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2145289443813848</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08719955282280603</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.01168160825862538</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08724832214765106</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.01475595913734393</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.00111794298490777</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01168160825862538</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.07568438003220607</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>The former Yugoslav Republic of Macedonia</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01475595913734393</v>
+        <v>0.0340522133938706</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00111794298490777</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1615,7 +1615,109 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.07568438003220607</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.001358326541700625</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.004540295119182747</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2465064281721613</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.07823960880195542</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.1465378421900159</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.65617128463476</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9738933030646991</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9524874231414164</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7302363488182522</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3700947225981057</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.8534621578099842</v>
       </c>
     </row>
   </sheetData>
